--- a/DataTable/BattleMonsterTable.xlsx
+++ b/DataTable/BattleMonsterTable.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,51 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1点伤害的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2点伤害的</t>
-  </si>
-  <si>
-    <t>3点伤害的</t>
-  </si>
-  <si>
-    <t>4点伤害的</t>
-  </si>
-  <si>
-    <t>揍一拳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>踹一脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻轻的抚摸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扇一巴掌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,38 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抽卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽一张卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摸一张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回4滴血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一回合回1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绷带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打绷带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,6 +220,53 @@
   </si>
   <si>
     <t>装备的武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleCards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手上的卡组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,2,2,5,6</t>
+  </si>
+  <si>
+    <t>1,1,1,1,2,2,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,11 +638,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
+      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -680,13 +650,13 @@
     <col min="4" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="28.375" customWidth="1"/>
     <col min="6" max="12" width="8.25" customWidth="1"/>
-    <col min="13" max="13" width="25.375" customWidth="1"/>
-    <col min="14" max="14" width="12.375" customWidth="1"/>
-    <col min="15" max="15" width="12.625" customWidth="1"/>
-    <col min="16" max="16" width="19.5" customWidth="1"/>
+    <col min="13" max="14" width="25.375" customWidth="1"/>
+    <col min="15" max="15" width="12.375" customWidth="1"/>
+    <col min="16" max="16" width="12.625" customWidth="1"/>
+    <col min="17" max="17" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -700,44 +670,47 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -754,41 +727,44 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -802,55 +778,58 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q3" s="1"/>
+      <c r="Q3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -877,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
@@ -888,19 +867,22 @@
       <c r="P4" s="1">
         <v>0</v>
       </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -927,10 +909,10 @@
         <v>0</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
@@ -938,19 +920,22 @@
       <c r="P5" s="1">
         <v>0</v>
       </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -977,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -988,19 +973,22 @@
       <c r="P6" s="1">
         <v>0</v>
       </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1027,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="O7" s="1">
         <v>0</v>
@@ -1038,19 +1026,22 @@
       <c r="P7" s="1">
         <v>0</v>
       </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1077,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
@@ -1088,19 +1079,22 @@
       <c r="P8" s="1">
         <v>0</v>
       </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1127,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
@@ -1138,19 +1132,22 @@
       <c r="P9" s="1">
         <v>0</v>
       </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1177,15 +1174,18 @@
         <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="O10" s="1">
         <v>0</v>
       </c>
       <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
         <v>0</v>
       </c>
     </row>

--- a/DataTable/BattleMonsterTable.xlsx
+++ b/DataTable/BattleMonsterTable.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +267,10 @@
   </si>
   <si>
     <t>鹿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,2,2,5,6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,11 +642,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
+      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -656,7 +660,7 @@
     <col min="17" max="17" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -708,9 +712,8 @@
       <c r="Q1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -762,9 +765,8 @@
       <c r="Q2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -816,9 +818,8 @@
       <c r="Q3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -871,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -912,7 +913,7 @@
         <v>34</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
@@ -924,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -977,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1030,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1083,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>

--- a/DataTable/BattleMonsterTable.xlsx
+++ b/DataTable/BattleMonsterTable.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\BigHead\DataTable\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,13 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>N</t>
     </r>
     <r>
@@ -35,250 +35,179 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>ame</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Comment</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>MaxHp</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>MaxMP</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>MaxAP</t>
+  </si>
+  <si>
+    <t>SkillId</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>BattleCards</t>
+  </si>
+  <si>
+    <t>BuffIds</t>
+  </si>
+  <si>
+    <t>BuffParams</t>
+  </si>
+  <si>
+    <t>EquipIds</t>
+  </si>
+  <si>
+    <t>DialogId</t>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">string </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+  </si>
+  <si>
+    <t>#目录</t>
   </si>
   <si>
     <t>文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划备注</t>
   </si>
   <si>
     <t>卡牌描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物等级</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>最大血量</t>
+  </si>
+  <si>
+    <t>蓝量</t>
+  </si>
+  <si>
+    <t>行动值</t>
+  </si>
+  <si>
+    <t>最大行动值</t>
+  </si>
+  <si>
+    <t>技能ID</t>
   </si>
   <si>
     <t>图标路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行动值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大行动值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手上的卡组</t>
+  </si>
+  <si>
+    <t>身上的buff</t>
+  </si>
+  <si>
+    <t>buff的参数</t>
+  </si>
+  <si>
+    <t>装备的武器</t>
+  </si>
+  <si>
+    <t>#对话Id</t>
+  </si>
+  <si>
+    <t>兔子</t>
   </si>
   <si>
     <t>UITexture/Head/npc_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,2,2,5,6</t>
+  </si>
+  <si>
+    <t>狗</t>
   </si>
   <si>
     <t>UITexture/Head/npc_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛</t>
   </si>
   <si>
     <t>UITexture/Head/npc_003</t>
   </si>
   <si>
+    <t>猪</t>
+  </si>
+  <si>
     <t>UITexture/Head/npc_004</t>
   </si>
   <si>
+    <t>羊</t>
+  </si>
+  <si>
     <t>UITexture/Head/npc_005</t>
   </si>
   <si>
+    <t>马</t>
+  </si>
+  <si>
     <t>UITexture/Head/npc_006</t>
   </si>
   <si>
+    <t>鹿</t>
+  </si>
+  <si>
     <t>UITexture/Head/npc_007</t>
-  </si>
-  <si>
-    <t>BuffIds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;int&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身上的buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffParams</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;int&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff的参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EquipIds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备的武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BattleCards</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;int&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手上的卡组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1,2,2,5,6</t>
-  </si>
-  <si>
-    <t>1,1,1,1,2,2,5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兔子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1,2,2,5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,37 +216,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -325,31 +569,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -398,7 +931,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -433,7 +966,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -636,20 +1169,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="28.375" customWidth="1"/>
@@ -660,7 +1194,7 @@
     <col min="17" max="17" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -668,169 +1202,178 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="O2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -857,10 +1400,10 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
@@ -871,19 +1414,22 @@
       <c r="Q4" s="1">
         <v>0</v>
       </c>
+      <c r="R4">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -910,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
@@ -924,19 +1470,22 @@
       <c r="Q5" s="1">
         <v>0</v>
       </c>
+      <c r="R5">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -963,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -977,19 +1526,22 @@
       <c r="Q6" s="1">
         <v>0</v>
       </c>
+      <c r="R6">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1016,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="O7" s="1">
         <v>0</v>
@@ -1030,19 +1582,22 @@
       <c r="Q7" s="1">
         <v>0</v>
       </c>
+      <c r="R7">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1069,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
@@ -1083,19 +1638,22 @@
       <c r="Q8" s="1">
         <v>0</v>
       </c>
+      <c r="R8">
+        <v>14</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1122,10 +1680,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
@@ -1136,19 +1694,22 @@
       <c r="Q9" s="1">
         <v>0</v>
       </c>
+      <c r="R9">
+        <v>14</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1175,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="O10" s="1">
         <v>0</v>
@@ -1188,39 +1749,48 @@
       </c>
       <c r="Q10" s="1">
         <v>0</v>
+      </c>
+      <c r="R10">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DataTable/BattleMonsterTable.xlsx
+++ b/DataTable/BattleMonsterTable.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\BigHead\DataTable\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
   <si>
     <t>Id</t>
   </si>
@@ -26,6 +31,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -35,6 +41,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ame</t>
@@ -155,59 +162,55 @@
     <t>兔子</t>
   </si>
   <si>
-    <t>UITexture/Head/npc_001</t>
-  </si>
-  <si>
     <t>1,1,1,1,2,2,5,6</t>
   </si>
   <si>
     <t>狗</t>
   </si>
   <si>
-    <t>UITexture/Head/npc_002</t>
-  </si>
-  <si>
     <t>牛</t>
   </si>
   <si>
-    <t>UITexture/Head/npc_003</t>
-  </si>
-  <si>
     <t>猪</t>
   </si>
   <si>
-    <t>UITexture/Head/npc_004</t>
-  </si>
-  <si>
     <t>羊</t>
   </si>
   <si>
-    <t>UITexture/Head/npc_005</t>
-  </si>
-  <si>
     <t>马</t>
   </si>
   <si>
-    <t>UITexture/Head/npc_006</t>
-  </si>
-  <si>
     <t>鹿</t>
   </si>
   <si>
-    <t>UITexture/Head/npc_007</t>
+    <t>Head/npc_001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head/npc_002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head/npc_003</t>
+  </si>
+  <si>
+    <t>Head/npc_004</t>
+  </si>
+  <si>
+    <t>Head/npc_005</t>
+  </si>
+  <si>
+    <t>Head/npc_006</t>
+  </si>
+  <si>
+    <t>Head/npc_007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,349 +222,34 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -569,251 +257,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -828,61 +274,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1169,21 +571,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="28.375" customWidth="1"/>
@@ -1194,7 +595,7 @@
     <col min="17" max="17" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1250,7 +651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1306,7 +707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1362,7 +763,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1400,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
@@ -1418,18 +819,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1456,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
@@ -1474,18 +875,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1512,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -1530,18 +931,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1568,10 +969,10 @@
         <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O7" s="1">
         <v>0</v>
@@ -1586,18 +987,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1624,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
@@ -1642,18 +1043,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1680,10 +1081,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
@@ -1698,18 +1099,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1739,7 +1140,7 @@
         <v>53</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O10" s="1">
         <v>0</v>
@@ -1755,42 +1156,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/DataTable/BattleMonsterTable.xlsx
+++ b/DataTable/BattleMonsterTable.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\BigHead\DataTable\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>Id</t>
   </si>
@@ -31,7 +26,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -41,7 +35,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ame</t>
@@ -96,6 +89,9 @@
     <t>DialogId</t>
   </si>
   <si>
+    <t>RewardId</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -159,48 +155,49 @@
     <t>#对话Id</t>
   </si>
   <si>
+    <t>奖励</t>
+  </si>
+  <si>
     <t>兔子</t>
   </si>
   <si>
+    <t>Head/npc_001</t>
+  </si>
+  <si>
     <t>1,1,1,1,2,2,5,6</t>
   </si>
   <si>
     <t>狗</t>
   </si>
   <si>
+    <t>Head/npc_002</t>
+  </si>
+  <si>
     <t>牛</t>
   </si>
   <si>
+    <t>Head/npc_003</t>
+  </si>
+  <si>
     <t>猪</t>
   </si>
   <si>
+    <t>Head/npc_004</t>
+  </si>
+  <si>
     <t>羊</t>
   </si>
   <si>
+    <t>Head/npc_005</t>
+  </si>
+  <si>
     <t>马</t>
   </si>
   <si>
+    <t>Head/npc_006</t>
+  </si>
+  <si>
     <t>鹿</t>
-  </si>
-  <si>
-    <t>Head/npc_001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Head/npc_002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Head/npc_003</t>
-  </si>
-  <si>
-    <t>Head/npc_004</t>
-  </si>
-  <si>
-    <t>Head/npc_005</t>
-  </si>
-  <si>
-    <t>Head/npc_006</t>
   </si>
   <si>
     <t>Head/npc_007</t>
@@ -209,8 +206,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,34 +225,355 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -257,9 +581,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -274,17 +840,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -571,20 +1181,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="28.375" customWidth="1"/>
@@ -595,7 +1206,7 @@
     <col min="17" max="17" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -650,131 +1261,140 @@
       <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="S2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="S3" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -801,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
@@ -818,19 +1438,22 @@
       <c r="R4">
         <v>14</v>
       </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -857,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
@@ -874,19 +1497,22 @@
       <c r="R5">
         <v>14</v>
       </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -913,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -930,19 +1556,22 @@
       <c r="R6">
         <v>14</v>
       </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -969,10 +1598,10 @@
         <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O7" s="1">
         <v>0</v>
@@ -986,19 +1615,22 @@
       <c r="R7">
         <v>14</v>
       </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1028,7 +1660,7 @@
         <v>51</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
@@ -1042,19 +1674,22 @@
       <c r="R8">
         <v>14</v>
       </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1081,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
@@ -1098,19 +1733,22 @@
       <c r="R9">
         <v>14</v>
       </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1137,10 +1775,10 @@
         <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O10" s="1">
         <v>0</v>
@@ -1154,38 +1792,47 @@
       <c r="R10">
         <v>14</v>
       </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DataTable/BattleMonsterTable.xlsx
+++ b/DataTable/BattleMonsterTable.xlsx
@@ -89,7 +89,7 @@
     <t>DialogId</t>
   </si>
   <si>
-    <t>RewardId</t>
+    <t>RewardIds</t>
   </si>
   <si>
     <t>int</t>
@@ -208,12 +208,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,8 +222,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -238,14 +306,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,14 +327,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -275,13 +335,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -290,68 +343,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,9 +359,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,25 +381,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,157 +549,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,21 +572,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -639,15 +617,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -656,11 +625,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,6 +661,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -687,10 +680,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,133 +692,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -833,7 +826,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1192,7 +1185,7 @@
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="S15" sqref="S15"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1321,7 +1314,7 @@
         <v>19</v>
       </c>
       <c r="S2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:19">
